--- a/medicine/Enfance/Up_Series/Up_Series.xlsx
+++ b/medicine/Enfance/Up_Series/Up_Series.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Up Series est une série de films documentaires produits par Granada Television qui suit la vie de quatorze enfants britanniques depuis 1964, alors qu'ils étaient âgés de sept ans. Ces enfants ont été sélectionnés pour représenter différents milieux socio-économiques du Royaume-Uni de l'époque, avec l'hypothèse explicite que la classe sociale prédétermine l'avenir de chaque enfant. Tous les sept ans, le réalisateur, Michael Apted, filme ceux qui ont choisi de participer.
-Le documentaire couvre aujourd'hui 56 années, en 9 épisodes. Michael Apted aurait dit "J'espère tourner 84 Up lorsque j'aurai 99 ans"[1] mais est mort en 2021[2].
+Le documentaire couvre aujourd'hui 56 années, en 9 épisodes. Michael Apted aurait dit "J'espère tourner 84 Up lorsque j'aurai 99 ans" mais est mort en 2021.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Liste des épisodes et diffusions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le documentaire a été diffusé à la fois sur ITV et la BBC. Les derniers épisodes de la série n'ont pas été diffusés à la télévision française. Ils sont disponibles en import sur DVD, mais non sous-titrés.
 </t>
@@ -544,7 +558,9 @@
           <t>Participants</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Andrew (Andrew Brackfield)
 Charles (Charles Furneaux)
@@ -589,43 +605,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Prix
-1985 : BAFTA Awards[3]
-1985 : International Documentary Association[3]
-1985 : Royal Television Society[3]
-1992 : BAFTA Awards[4]
-1999 : BAFTA Awards[5]
-1992 : FIPA d'argent pour 35 up[6].
-1992 : Prix SCAM[7]
-2012 : Peabody Award[8]
-2019 : Satellite Awards, Best Motion Picture, Documentary[9]
-2020 : Prix du jury, Broadcasting Press Guild Awards[9]
-Nominations
-1986 : National Society of Film Critics Awards[3]
-1987 : Film Independent Spirit Awards[3]
-1998 : International Documentary Association[5]
-1998 : Awards Circuit Community Awards[5]
-1999 : Flaherty Documentary Award[5]
-2000 : Las Vegas Film Critics Society Awards[5]
-2000 : Online Film &amp; Television Association[5]
-2000 : Online Film Critics Society Awards[5]
-2000 : Satellite Awards[5]
-2001 : Chicago Film Critics Association Awards[5]
-2005 : Satellite Awards[5]
-2006 : BAFTA Awards[10]
-2006 : Satellite Awards[10]
-2006 : New York Film Critics Circle Awards[10]
-2007 : Chlotrudis Award[10]
-2008 : News &amp; Documentary Emmy Awards[10]
-2012 : 20/20 Awards[4]
-2013 : Online Film Critics Society Awards[11]
-2014 : News &amp; Documentary Emmy Awards[11]
-2014 : Chlotrudis Award[11]
-2019 : Rose d'Or Light Entertainment Festival[9]
-2020 : Bafta TV Craft[9]
-Autres
-1985 : le critique de cinéma Roger Ebert, particulièrement reconnu en Amérique, classe cette série parmi ses 10 meilleurs films de tous les temps[12].
-2005 : Channel 4 le classe en tête des « 50 plus grands documentaires » jamais réalisés[13].</t>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1985 : BAFTA Awards
+1985 : International Documentary Association
+1985 : Royal Television Society
+1992 : BAFTA Awards
+1999 : BAFTA Awards
+1992 : FIPA d'argent pour 35 up.
+1992 : Prix SCAM
+2012 : Peabody Award
+2019 : Satellite Awards, Best Motion Picture, Documentary
+2020 : Prix du jury, Broadcasting Press Guild Awards</t>
         </is>
       </c>
     </row>
@@ -650,10 +645,106 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1986 : National Society of Film Critics Awards
+1987 : Film Independent Spirit Awards
+1998 : International Documentary Association
+1998 : Awards Circuit Community Awards
+1999 : Flaherty Documentary Award
+2000 : Las Vegas Film Critics Society Awards
+2000 : Online Film &amp; Television Association
+2000 : Online Film Critics Society Awards
+2000 : Satellite Awards
+2001 : Chicago Film Critics Association Awards
+2005 : Satellite Awards
+2006 : BAFTA Awards
+2006 : Satellite Awards
+2006 : New York Film Critics Circle Awards
+2007 : Chlotrudis Award
+2008 : News &amp; Documentary Emmy Awards
+2012 : 20/20 Awards
+2013 : Online Film Critics Society Awards
+2014 : News &amp; Documentary Emmy Awards
+2014 : Chlotrudis Award
+2019 : Rose d'Or Light Entertainment Festival
+2020 : Bafta TV Craft</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Up_Series</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Up_Series</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1985 : le critique de cinéma Roger Ebert, particulièrement reconnu en Amérique, classe cette série parmi ses 10 meilleurs films de tous les temps.
+2005 : Channel 4 le classe en tête des « 50 plus grands documentaires » jamais réalisés.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Up_Series</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Up_Series</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Séries sur le même sujet</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>France
 Que deviendront-ils ?, de Michel Fresnel (1984–1996)
